--- a/biology/Botanique/Nitrariaceae/Nitrariaceae.xlsx
+++ b/biology/Botanique/Nitrariaceae/Nitrariaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La famille des Nitrariacées regroupe des plantes dicotylédones.
 Ce sont des arbustes succulents, ou des plantes herbacées (Peganum), à feuilles caduques, parfois épineux, des régions sèches (déserts salins), originaires du Sahara, des déserts d'Asie centrale et d'Australie.
@@ -512,9 +524,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom vient du genre type Nitraria donné par le botaniste, mycologue et zoologiste allemand, J. C. D. von Schreber, élève de Carl von Linné. Nitraria rappelle le fait que Schreber découvrit la plante dans des gisements de nitre (salpêtre) en Sibérie, parmi d’autres plantes halophiles[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom vient du genre type Nitraria donné par le botaniste, mycologue et zoologiste allemand, J. C. D. von Schreber, élève de Carl von Linné. Nitraria rappelle le fait que Schreber découvrit la plante dans des gisements de nitre (salpêtre) en Sibérie, parmi d’autres plantes halophiles.
 </t>
         </is>
       </c>
@@ -543,14 +557,16 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette famille n'existe pas en classification classique de Cronquist (1981)[2] qui assigne ces genres à la famille des Zygophyllacées.
-La classification phylogénétique APG II (2003)[3] offre deux options
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette famille n'existe pas en classification classique de Cronquist (1981) qui assigne ces genres à la famille des Zygophyllacées.
+La classification phylogénétique APG II (2003) offre deux options
 stricto sensu : 9 espèces dans un seul genre Nitraria
 lato sensu : 16 espèces réparties en trois genres : Nitraria, Peganum, Tetradiclis
 Le Angiosperm Phylogeny Website choisit la deuxième option.  
-En classification phylogénétique APG III (2009)[4], qui n'a jamais recours à des familles optionnelles, c'est la version large lato sensu qui est reconnue.
+En classification phylogénétique APG III (2009), qui n'a jamais recours à des familles optionnelles, c'est la version large lato sensu qui est reconnue.
 </t>
         </is>
       </c>
@@ -579,19 +595,21 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>La classification phylogénétique APG III (2009)[4] inclut dans cette famille les genres précédemment placés dans les familles Peganaceae et Tetradiclidaceae. Les genres Malacocarpus, Peganum et Tetradiclis pour être précis.
-Selon Angiosperm Phylogeny Website                        (22 juin 2010)[5] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>La classification phylogénétique APG III (2009) inclut dans cette famille les genres précédemment placés dans les familles Peganaceae et Tetradiclidaceae. Les genres Malacocarpus, Peganum et Tetradiclis pour être précis.
+Selon Angiosperm Phylogeny Website                        (22 juin 2010) :
 Nitraria (en)
 Peganum
 Tetradiclis (es)
-Selon NCBI  (22 juin 2010)[6] (Plus conforme à APG III puisqu'il incorpore les genres Malacocarpus, Peganum et Tetradiclis anciennement dans Peganaceae et Tetradiclidaceae) :
+Selon NCBI  (22 juin 2010) (Plus conforme à APG III puisqu'il incorpore les genres Malacocarpus, Peganum et Tetradiclis anciennement dans Peganaceae et Tetradiclidaceae) :
 Malacocarpus
 Nitraria
 Peganum
 Tetradiclis
-Selon DELTA Angio           (22 juin 2010)[7] :
+Selon DELTA Angio           (22 juin 2010) :
 Nitraria</t>
         </is>
       </c>
@@ -620,9 +638,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Selon NCBI  (22 juin 2010)[6] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon NCBI  (22 juin 2010) :
 genre Malacocarpus
 Malacocarpus crithmifolius
 genre Nitraria
